--- a/data/raw/ACH/reimbursements week ending 5.31.24.xlsx
+++ b/data/raw/ACH/reimbursements week ending 5.31.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23C8DBA-D4AC-4365-8BAA-CA97463C2E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FE5938-A2B9-4EA9-AF38-F520DD0DFF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="4240" windowWidth="35430" windowHeight="15930" xr2:uid="{33E343A0-EF47-43AA-82EF-CFC9D2E6B58A}"/>
+    <workbookView xWindow="-26420" yWindow="3610" windowWidth="25620" windowHeight="15930" xr2:uid="{33E343A0-EF47-43AA-82EF-CFC9D2E6B58A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Spheeris</t>
   </si>
@@ -77,16 +77,19 @@
     <t>EL CENTRO 5/20-5/23</t>
   </si>
   <si>
-    <t>5/31/2024 - 1</t>
-  </si>
-  <si>
-    <t>5/31/2024 - 2</t>
-  </si>
-  <si>
     <t>5/31/2024</t>
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>5/17/2024</t>
+  </si>
+  <si>
+    <t>5/24/2024</t>
+  </si>
+  <si>
+    <t>5/23/2024</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -516,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3">
         <v>45421</v>
@@ -524,7 +527,7 @@
       <c r="D2">
         <v>352</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -533,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3">
         <v>45429</v>
@@ -541,7 +544,7 @@
       <c r="D3">
         <v>883.88</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -550,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>45436</v>
@@ -558,7 +561,7 @@
       <c r="D4">
         <v>1518.88</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -567,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3">
         <v>45436</v>
@@ -575,7 +578,7 @@
       <c r="D5">
         <v>383.5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -584,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>45436</v>
@@ -592,7 +595,7 @@
       <c r="D6">
         <v>383.5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -601,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>45435</v>
@@ -609,7 +612,7 @@
       <c r="D7">
         <v>517.41999999999996</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
